--- a/console/Elastic-Compute/Virtual-Machine/components/image/imageTypeChooseBtn.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/components/image/imageTypeChooseBtn.xlsx
@@ -16,33 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>tips_one</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Providing a large number of applicable images (provided by JD Cloud service team/third party ISV)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tips_two</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>更多资讯请前往</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>For more information, please go to</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -62,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image Marketplace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>public</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,51 +106,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>提供大量应用镜像（由京东云服务团队</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>第三方</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ISV</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>提供）</t>
-    </r>
+    <t>提供大量应用镜像（由京东云服务团队/第三方ISV提供）xxx 更多资讯请前往 xxx 镜像市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marketplace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Provides a large number of applicable images (provided by JD Cloud service team/third party ISV). xxx For more information, please go to xxx  Marketplace.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,9 +170,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -539,15 +488,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="88.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -555,80 +504,76 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
